--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3642468.829743296</v>
+        <v>3640581.248226891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652226.9717395696</v>
+        <v>720147.136081919</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.35838691088045</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>410.5283397516114</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.3178534391397</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>20.13349987277675</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>25.10827519292613</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.027508828177</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>173.3244323150256</v>
       </c>
       <c r="I8" t="n">
-        <v>51.85635008141321</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295492</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701335</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.3674220664874</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>132.1690274980767</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.3158222056521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.843519215191</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>252.9697480666003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>58.29070341759476</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>80.83119524461097</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>144.4797853959772</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>97.12772045570719</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>169.8277167599786</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>91.26047178278932</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>78.67531269947287</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897935</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571522</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523603</v>
+        <v>54.76109577523568</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550465</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298325</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700206</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080342</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723538</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3080,7 +3080,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.521729839487</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1623.65792847316</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1265.39222986641</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>879.6039772681654</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>468.6180724785578</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.723949158869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.521729839487</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4383,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598705</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1310.22335213854</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C5" t="n">
-        <v>941.2608351981287</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>903.2295632701455</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>492.2436584805379</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>74.2798503787248</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>74.2798503787248</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2671.787196883953</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2418.025411522045</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2086.962524178474</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2086.962524178474</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2086.962524178474</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.823192202662</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>113.6371076753683</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>368.8844281164668</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>773.5003462121387</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.64725977017</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.373795869721</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1602.48111343776</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1602.48111343776</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D8" t="n">
-        <v>1244.21541483101</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>858.4271622327653</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F8" t="n">
-        <v>447.4412574431578</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G8" t="n">
-        <v>433.5178533817487</v>
+        <v>382.4841419818663</v>
       </c>
       <c r="H8" t="n">
-        <v>106.3231334177515</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.48111343776</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,64 +5015,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155901</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L12" t="n">
-        <v>711.1141612171745</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M12" t="n">
         <v>1479.482307609636</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.893885873787</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765192</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706324</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>781.8780707889954</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.0854916454653</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N15" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.2170914602859</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336717</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X16" t="n">
-        <v>241.9805482336718</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5540,19 +5540,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,25 +5595,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>323.6581146605669</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>323.6581146605669</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5659,28 +5659,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811266</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W19" t="n">
-        <v>499.6581354340556</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340556</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5762,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1128.069692924718</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.069692924718</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>751.4342788065928</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>601.3176393942571</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>453.4045458118638</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>306.5145983139535</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>306.5145983139535</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>156.0965898618967</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1306.193495155475</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1017.064856369033</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369033</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W22" t="n">
-        <v>727.6476863320729</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340556</v>
+        <v>920.3704617344998</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>920.3704617344998</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6014,10 +6014,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>263.5382936126482</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605669</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1041.981979867627</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>752.8533410811856</v>
+        <v>898.7925182488385</v>
       </c>
       <c r="V25" t="n">
-        <v>498.1688528752987</v>
+        <v>644.1080300429517</v>
       </c>
       <c r="W25" t="n">
-        <v>208.7516828383381</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383381</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383381</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,16 +6239,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578666</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>494.14282528621</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542133</v>
+        <v>473.237734772998</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542133</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542133</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="E31" t="n">
-        <v>439.5324299542133</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264629</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276541</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933495</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.45090536675</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962034</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286022</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056072</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899268</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.65268009619</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167067</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661996</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737479</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818892</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652422</v>
+        <v>730.4517433652475</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030826</v>
+        <v>565.4200295030882</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6683,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>323.6581146605672</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>323.6581146605672</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,16 +7160,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,13 +7190,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,13 +7327,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,10 +7722,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
         <v>508.1073603047985</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>202.8611258896129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.46455811544988</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>119.9686158257513</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.26883114644266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>33.55325026999074</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>52.12854204667725</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7163658137782</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>77.06777566241198</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>189.3952778808838</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>51.71984429841068</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>33.36825177059086</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700711</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965558</v>
+        <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180124</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
-        <v>11.5424786949016</v>
+        <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409908</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711938.7403542228</v>
+        <v>711938.7403542229</v>
       </c>
     </row>
     <row r="12">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="F2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="H2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409905</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409907</v>
       </c>
       <c r="K2" t="n">
         <v>711938.7403542236</v>
@@ -26347,7 +26347,7 @@
         <v>718411.5486312488</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312488</v>
+        <v>718411.5486312485</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312488</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.41060513164848e-11</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284517</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086713</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028454</v>
+        <v>44162.60530284576</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905759357</v>
+        <v>787.7936905757977</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758835</v>
+        <v>787.7936905758372</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758474</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477233</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
@@ -26457,7 +26457,7 @@
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022276</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.54782732436</v>
+        <v>-93474.54782732521</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872196</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872194</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.6984248021</v>
+        <v>66268.23929882956</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.734901698</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016981</v>
+        <v>591428.275775726</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.7349016982</v>
+        <v>591428.2757757257</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016981</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.515709105</v>
+        <v>415005.056583133</v>
       </c>
       <c r="K6" t="n">
-        <v>552195.5103163834</v>
+        <v>552177.0165784484</v>
       </c>
       <c r="L6" t="n">
-        <v>587146.9550784596</v>
+        <v>587146.9550784599</v>
       </c>
       <c r="M6" t="n">
-        <v>462688.84664549</v>
+        <v>462688.8466454899</v>
       </c>
       <c r="N6" t="n">
-        <v>597489.861879327</v>
+        <v>597489.8618793268</v>
       </c>
       <c r="O6" t="n">
-        <v>597489.861879327</v>
+        <v>597489.8618793271</v>
       </c>
       <c r="P6" t="n">
-        <v>553327.2565764815</v>
+        <v>553327.2565764812</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.477785167479108e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26759,7 +26759,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26771,13 +26771,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.368494079262734e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2632564145606e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108391</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855674</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.368494079262734e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2632564145606e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.9145048601271</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.255830269183548</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.750155989720952e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.2051448974513</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>131.7978163720845</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>191.3400451647317</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>17.49548950841404</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>150.5983404493315</v>
       </c>
       <c r="I8" t="n">
-        <v>100.074966163448</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.928967659488</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28141,13 +28141,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-5.58651762804658e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.406874616804998e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-7.07318341828168e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.214528752918507e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.936955798779477e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.936955798779477e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="32">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31060,25 +31060,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>61.04368814949405</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31604,7 +31604,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31844,16 +31844,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>131.4209907335601</v>
       </c>
       <c r="O12" t="n">
-        <v>91.84465193776708</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
@@ -32087,10 +32087,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O15" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32549,31 +32549,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>225.9373985850582</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,31 +33260,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,10 +33746,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,7 +34217,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>224.6051223555648</v>
@@ -34235,10 +34235,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,7 +34454,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>392.6063366508803</v>
@@ -34472,10 +34472,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.2970968232362</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>479.4216529937803</v>
       </c>
       <c r="O12" t="n">
-        <v>343.1107267700522</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,10 +35735,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O15" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556558</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>60.72709196759461</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556558</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>458.2233641086432</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556558</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>60.72709196759461</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556563</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187476</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197785</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412229</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584673</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341604</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491596</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403575</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043152</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>60.72709196759495</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37394,10 +37394,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>572.6057846157851</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>740.6069989111005</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
